--- a/file_checks/X_correct_genes_example.xlsx
+++ b/file_checks/X_correct_genes_example.xlsx
@@ -1343,502 +1343,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.526548405179763</v>
+        <v>0.0923142239840188</v>
       </c>
       <c r="B2" t="n">
-        <v>0.844464502013033</v>
+        <v>-0.50121305876213</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.380511160861507</v>
+        <v>-0.0998356833594175</v>
       </c>
       <c r="D2" t="n">
-        <v>0.680057468502039</v>
+        <v>0.787324145086621</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.27952445867728</v>
+        <v>0.0553806045274761</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.908042856990372</v>
+        <v>0.127916434154792</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.57756758300233</v>
+        <v>-0.143830448266722</v>
       </c>
       <c r="H2" t="n">
-        <v>1.57984195690766</v>
+        <v>0.82308537111943</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.73782763498039</v>
+        <v>0.990187429925701</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.104582410326604</v>
+        <v>0.970112508349511</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.873251002162398</v>
+        <v>1.23496311137546</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.33679178918441</v>
+        <v>-1.52241069696402</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.45396635713374</v>
+        <v>0.984757425472157</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.191365091793224</v>
+        <v>1.24183408306531</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0863857379607958</v>
+        <v>-0.460627337348225</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.88359621038392</v>
+        <v>-0.0208861739178552</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0418238059913102</v>
+        <v>-0.662778706332143</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.998278428691754</v>
+        <v>-0.157963461362314</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.916663342070329</v>
+        <v>-0.964915518022407</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.84530912708141</v>
+        <v>-1.00440646768214</v>
       </c>
       <c r="U2" t="n">
-        <v>0.171586912884492</v>
+        <v>1.34343472744086</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.675709026874025</v>
+        <v>0.343814876636826</v>
       </c>
       <c r="W2" t="n">
-        <v>1.02259413732847</v>
+        <v>-0.776643045968477</v>
       </c>
       <c r="X2" t="n">
-        <v>0.559071175796156</v>
+        <v>0.962093337118883</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.609947432842431</v>
+        <v>0.519287353617429</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.804897238520085</v>
+        <v>0.836814897344337</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.497552226019282</v>
+        <v>-1.17330636114252</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.156798792951842</v>
+        <v>2.1959925263639</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.685105095492625</v>
+        <v>-0.262550898055468</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.671636305061255</v>
+        <v>-0.256341120354409</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.329150674828004</v>
+        <v>-1.05891102568879</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.50857618544323</v>
+        <v>0.957801701173977</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.17360091654376</v>
+        <v>-1.76168929087131</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.134493467194721</v>
+        <v>-1.19772403064227</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.157292635752975</v>
+        <v>-2.98763550846996</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.1176534578176</v>
+        <v>1.1173736734834</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1.62304792982882</v>
+        <v>1.30583897380381</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.904258884865514</v>
+        <v>0.398972616165818</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.630073450407959</v>
+        <v>-0.983557728822211</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.545817662588576</v>
+        <v>2.56917801687644</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.345637900731562</v>
+        <v>-0.992647396840732</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.443558289822763</v>
+        <v>-0.61960120373545</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.235561080526001</v>
+        <v>-0.0147963907357927</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.158751164537372</v>
+        <v>-0.525368666887159</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.673378378181391</v>
+        <v>1.14749247615758</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.683990431315681</v>
+        <v>0.163671210334489</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.00087725880577</v>
+        <v>1.28720273944591</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.791161228933843</v>
+        <v>-0.430772407533226</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.168381885332808</v>
+        <v>-0.210519989422453</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.527807318304602</v>
+        <v>0.0838838896661862</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.538285214297667</v>
+        <v>2.36593235464115</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-1.19901949731883</v>
+        <v>-0.238379636329802</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.46144515065093</v>
+        <v>-0.733547823602039</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.32807149764033</v>
+        <v>-0.211288566937509</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.643599506636297</v>
+        <v>-0.873461850772098</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.446669196711901</v>
+        <v>0.212744232576062</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.629289952435014</v>
+        <v>-2.59411740535807</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.423297672612035</v>
+        <v>0.862404411776391</v>
       </c>
       <c r="BG2" t="n">
-        <v>-2.00817686834132</v>
+        <v>-1.46560158844362</v>
       </c>
       <c r="BH2" t="n">
-        <v>-1.03519774770647</v>
+        <v>2.61331239987135</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.239862488543912</v>
+        <v>-2.10528469949188</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.663145410797793</v>
+        <v>0.0167731087354844</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.345045658117482</v>
+        <v>0.459047671368038</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.183070885129434</v>
+        <v>-0.262960688516522</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.937022431960484</v>
+        <v>0.0000523111580828832</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.476818567669295</v>
+        <v>-0.01034651506868</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.5363563377035</v>
+        <v>-0.800870488447962</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.60480786636275</v>
+        <v>0.824538737235615</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.715339835141762</v>
+        <v>1.33829399792217</v>
       </c>
       <c r="BR2" t="n">
-        <v>-1.51106708295487</v>
+        <v>-0.186216157765812</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.751897003277894</v>
+        <v>0.451878877388155</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.93238149819349</v>
+        <v>-0.284527968383599</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.667098357422275</v>
+        <v>-0.0851194273387728</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.162539702094227</v>
+        <v>0.921991478149665</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.058304935937149</v>
+        <v>-0.655221355677785</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.236829052349806</v>
+        <v>-1.35590446816709</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.540086312979879</v>
+        <v>0.444717061101834</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.22809102033611</v>
+        <v>1.4437975645061</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.788123976850877</v>
+        <v>-2.52731451437312</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.431306329508905</v>
+        <v>-0.494812652589809</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.565590544024404</v>
+        <v>-2.07835271353681</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.811180736067309</v>
+        <v>0.6492510480618</v>
       </c>
       <c r="CE2" t="n">
-        <v>-2.04093047612487</v>
+        <v>-0.522192732837177</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.455173270535319</v>
+        <v>0.53908573811124</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.0749676704069222</v>
+        <v>1.26057762296255</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0183332320942445</v>
+        <v>-0.126259158922901</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.909523747587752</v>
+        <v>-0.193775188046091</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-3.34275644917419</v>
+        <v>-1.22609049523735</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.900261484862202</v>
+        <v>-0.382967250912232</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.554980878708144</v>
+        <v>0.966325500123598</v>
       </c>
       <c r="CM2" t="n">
-        <v>-1.19846691374689</v>
+        <v>0.435667310861949</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.14639454459045</v>
+        <v>1.07381222951358</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0189441908069298</v>
+        <v>-0.427496879401636</v>
       </c>
       <c r="CP2" t="n">
-        <v>-1.76749048509349</v>
+        <v>0.298417480214921</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.394184447043117</v>
+        <v>-0.474031551821115</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.49329714472339</v>
+        <v>-0.187846847440774</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.270647252352877</v>
+        <v>2.19354031673067</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.979948863684648</v>
+        <v>0.31256051306145</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.68555823207575</v>
+        <v>1.55960179690597</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.666726727176257</v>
+        <v>2.02928049134214</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.683787913624109</v>
+        <v>-0.790210242993929</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.03126811679572</v>
+        <v>0.782884952981919</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.75932785456323</v>
+        <v>1.23523499533702</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.55360571986964</v>
+        <v>-1.20356815437592</v>
       </c>
       <c r="DA2" t="n">
-        <v>-1.40675672260259</v>
+        <v>-0.0471777871438536</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.72079717311928</v>
+        <v>-0.776662496348101</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.02406061809592</v>
+        <v>-1.41600679914313</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.921820290694819</v>
+        <v>0.818027907707817</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.24499473735131</v>
+        <v>0.349330610670751</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.491447630871527</v>
+        <v>-0.736299804914116</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.230984761848751</v>
+        <v>-0.409302746680204</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.174034579421493</v>
+        <v>-0.507144023613508</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.27851483928377</v>
+        <v>1.96314453507273</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.24090148163051</v>
+        <v>-0.0215012045968415</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0249239259940577</v>
+        <v>2.85574968222034</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.496093362407339</v>
+        <v>-1.56586126935052</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.657272475760836</v>
+        <v>0.124518402178842</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.404723232535586</v>
+        <v>0.0547180791679942</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.398576834858953</v>
+        <v>0.460782519235726</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.937624442030305</v>
+        <v>-1.40186504332645</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.10290644299252</v>
+        <v>-1.04548436180017</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.728748946465731</v>
+        <v>-0.821817269143414</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.613028328871532</v>
+        <v>0.592356661007713</v>
       </c>
       <c r="DT2" t="n">
-        <v>-1.21912836541334</v>
+        <v>0.2737588476396</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.26549219912414</v>
+        <v>1.12678583377825</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.26943057997132</v>
+        <v>1.95144542787544</v>
       </c>
       <c r="DW2" t="n">
-        <v>-2.43238309439228</v>
+        <v>0.588406437237806</v>
       </c>
       <c r="DX2" t="n">
-        <v>-1.63869268890195</v>
+        <v>-1.23235787154324</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.551366393191511</v>
+        <v>0.596699374824704</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-1.54642307561165</v>
+        <v>-0.345018080641045</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.794769186824086</v>
+        <v>-1.08091950073709</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.610188406811379</v>
+        <v>-1.28243156883193</v>
       </c>
       <c r="EC2" t="n">
-        <v>-1.1991524706418</v>
+        <v>-0.895709812379047</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.12637684826748</v>
+        <v>0.519343019326338</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.71719219814949</v>
+        <v>-0.969449515655239</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.729356529042016</v>
+        <v>0.0593989801471712</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.76061960971273</v>
+        <v>0.0277584423371026</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.00505797628857587</v>
+        <v>1.41794477222712</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.458900027571257</v>
+        <v>0.639523276069214</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.431629702857313</v>
+        <v>0.552682042274255</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.00168216768811535</v>
+        <v>-1.2422711154403</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.207128959027702</v>
+        <v>-0.761891063281787</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.63945601757313</v>
+        <v>-0.269827484507333</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.608792280155869</v>
+        <v>0.663806438551574</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.850036002114017</v>
+        <v>-0.327023184463451</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.888539125729803</v>
+        <v>0.0240469075414866</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.162974584979244</v>
+        <v>0.593868259631322</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.638937857872635</v>
+        <v>-1.47449658245343</v>
       </c>
       <c r="ES2" t="n">
-        <v>-2.08105361499155</v>
+        <v>-1.00470371020059</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.45401700309279</v>
+        <v>0.998969333120356</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.38999824750884</v>
+        <v>-0.103299465461209</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.502105186518806</v>
+        <v>0.689698431683819</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.197170171009368</v>
+        <v>-0.0705351509363386</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.71958062509989</v>
+        <v>-0.194142215919846</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.601135548636727</v>
+        <v>-0.141757590423097</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.603242239839286</v>
+        <v>-0.838252154212015</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.212429394378218</v>
+        <v>-0.0344769272666568</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.358745326819786</v>
+        <v>0.077664207102126</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.152884630892191</v>
+        <v>-2.00357748958749</v>
       </c>
       <c r="FD2" t="n">
-        <v>2.3446957103789</v>
+        <v>0.724818626251634</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.597703184585803</v>
+        <v>-1.4881946453131</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0779834639080277</v>
+        <v>-1.58454737661651</v>
       </c>
       <c r="FG2" t="n">
-        <v>1.59855456760661</v>
+        <v>-0.411505161636011</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.307956158981909</v>
+        <v>-0.666478924141193</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.611811775582386</v>
+        <v>2.28878374283431</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.66576131800602</v>
+        <v>2.36943742151548</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/X_correct_genes_example.xlsx
+++ b/file_checks/X_correct_genes_example.xlsx
@@ -1343,502 +1343,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0923142239840188</v>
+        <v>2.52358072832574</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.50121305876213</v>
+        <v>-0.565163723836642</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0998356833594175</v>
+        <v>-0.384808419512136</v>
       </c>
       <c r="D2" t="n">
-        <v>0.787324145086621</v>
+        <v>1.12790159590698</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0553806045274761</v>
+        <v>0.235209973968387</v>
       </c>
       <c r="F2" t="n">
-        <v>0.127916434154792</v>
+        <v>-1.0948414459813</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.143830448266722</v>
+        <v>-1.16260860071171</v>
       </c>
       <c r="H2" t="n">
-        <v>0.82308537111943</v>
+        <v>-0.834938109791449</v>
       </c>
       <c r="I2" t="n">
-        <v>0.990187429925701</v>
+        <v>-0.760665954110177</v>
       </c>
       <c r="J2" t="n">
-        <v>0.970112508349511</v>
+        <v>0.325641927649603</v>
       </c>
       <c r="K2" t="n">
-        <v>1.23496311137546</v>
+        <v>0.729450012113804</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.52241069696402</v>
+        <v>-0.235972605031401</v>
       </c>
       <c r="M2" t="n">
-        <v>0.984757425472157</v>
+        <v>0.577034452722338</v>
       </c>
       <c r="N2" t="n">
-        <v>1.24183408306531</v>
+        <v>-0.204775818144511</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.460627337348225</v>
+        <v>-0.505271970862107</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.0208861739178552</v>
+        <v>-0.154525802684842</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.662778706332143</v>
+        <v>-1.75039667507506</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.157963461362314</v>
+        <v>-0.312288558626208</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.964915518022407</v>
+        <v>0.543289489800526</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.00440646768214</v>
+        <v>-0.650167001613131</v>
       </c>
       <c r="U2" t="n">
-        <v>1.34343472744086</v>
+        <v>0.33071847769103</v>
       </c>
       <c r="V2" t="n">
-        <v>0.343814876636826</v>
+        <v>0.57612142562453</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.776643045968477</v>
+        <v>-0.598672034925136</v>
       </c>
       <c r="X2" t="n">
-        <v>0.962093337118883</v>
+        <v>-0.882597666005313</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.519287353617429</v>
+        <v>-0.480136888225401</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.836814897344337</v>
+        <v>0.986825425525895</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.17330636114252</v>
+        <v>-1.41502447534455</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.1959925263639</v>
+        <v>1.12138007700696</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.262550898055468</v>
+        <v>0.334926469677277</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.256341120354409</v>
+        <v>0.245162641224281</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.05891102568879</v>
+        <v>1.19535208917994</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.957801701173977</v>
+        <v>-2.70910781866549</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.76168929087131</v>
+        <v>0.492723253510954</v>
       </c>
       <c r="AH2" t="n">
-        <v>-1.19772403064227</v>
+        <v>-0.18845628082683</v>
       </c>
       <c r="AI2" t="n">
-        <v>-2.98763550846996</v>
+        <v>-1.05621661168351</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.1173736734834</v>
+        <v>1.31691524917621</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.30583897380381</v>
+        <v>1.07476645029559</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.398972616165818</v>
+        <v>-1.02648072889008</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.983557728822211</v>
+        <v>0.556358157410929</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.56917801687644</v>
+        <v>-0.419156259990244</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.992647396840732</v>
+        <v>-2.07764399896447</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.61960120373545</v>
+        <v>-1.34739323990549</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0147963907357927</v>
+        <v>0.123095332921576</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.525368666887159</v>
+        <v>1.43647395266448</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.14749247615758</v>
+        <v>-1.37071145830875</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.163671210334489</v>
+        <v>0.316053087683957</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.28720273944591</v>
+        <v>2.93534777457907</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.430772407533226</v>
+        <v>-0.726303298031195</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.210519989422453</v>
+        <v>-0.357169225861846</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0838838896661862</v>
+        <v>0.66197086575968</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.36593235464115</v>
+        <v>-0.279204531849145</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.238379636329802</v>
+        <v>0.936063868124109</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.733547823602039</v>
+        <v>1.14998116175933</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.211288566937509</v>
+        <v>0.199012806118007</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.873461850772098</v>
+        <v>-0.441348939677437</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.212744232576062</v>
+        <v>0.595602238040311</v>
       </c>
       <c r="BE2" t="n">
-        <v>-2.59411740535807</v>
+        <v>-0.428735450636473</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.862404411776391</v>
+        <v>-1.39189793099421</v>
       </c>
       <c r="BG2" t="n">
-        <v>-1.46560158844362</v>
+        <v>0.671937897660484</v>
       </c>
       <c r="BH2" t="n">
-        <v>2.61331239987135</v>
+        <v>0.984995412424767</v>
       </c>
       <c r="BI2" t="n">
-        <v>-2.10528469949188</v>
+        <v>0.564297382574936</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0167731087354844</v>
+        <v>0.866395354364217</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.459047671368038</v>
+        <v>0.463195276271378</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.262960688516522</v>
+        <v>0.573884738837679</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0000523111580828832</v>
+        <v>-0.674454536449052</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.01034651506868</v>
+        <v>-0.848116905236839</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.800870488447962</v>
+        <v>-0.528507566797402</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.824538737235615</v>
+        <v>0.344436806739043</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.33829399792217</v>
+        <v>-0.0476668310834295</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.186216157765812</v>
+        <v>2.01206911242541</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.451878877388155</v>
+        <v>3.50437601701606</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.284527968383599</v>
+        <v>0.936669614660509</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.0851194273387728</v>
+        <v>-1.85138687957683</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.921991478149665</v>
+        <v>0.457238009355126</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.655221355677785</v>
+        <v>0.0481568056924353</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.35590446816709</v>
+        <v>-1.18375468150904</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.444717061101834</v>
+        <v>0.148615703631308</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.4437975645061</v>
+        <v>-1.54236334560675</v>
       </c>
       <c r="CA2" t="n">
-        <v>-2.52731451437312</v>
+        <v>-1.73385988208944</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.494812652589809</v>
+        <v>0.211746653539887</v>
       </c>
       <c r="CC2" t="n">
-        <v>-2.07835271353681</v>
+        <v>-0.743904523064844</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.6492510480618</v>
+        <v>0.0814411262998503</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.522192732837177</v>
+        <v>-0.526049707555506</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.53908573811124</v>
+        <v>1.26529163252046</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.26057762296255</v>
+        <v>-1.03224848577433</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.126259158922901</v>
+        <v>-0.749383373042121</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.193775188046091</v>
+        <v>-1.14642254426612</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-1.22609049523735</v>
+        <v>0.0197363185019055</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.382967250912232</v>
+        <v>-0.29981033002896</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.966325500123598</v>
+        <v>-1.17362296148596</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.435667310861949</v>
+        <v>-1.09982844295075</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.07381222951358</v>
+        <v>0.172600228041023</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.427496879401636</v>
+        <v>0.455481649333329</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.298417480214921</v>
+        <v>1.29753875791957</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.474031551821115</v>
+        <v>0.500460829005253</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.187846847440774</v>
+        <v>-1.54957518657695</v>
       </c>
       <c r="CS2" t="n">
-        <v>2.19354031673067</v>
+        <v>1.39841749863675</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.31256051306145</v>
+        <v>3.06410873031629</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.55960179690597</v>
+        <v>0.794965998959456</v>
       </c>
       <c r="CV2" t="n">
-        <v>2.02928049134214</v>
+        <v>-0.320424043848313</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.790210242993929</v>
+        <v>1.01134041440375</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.782884952981919</v>
+        <v>1.6412302093276</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.23523499533702</v>
+        <v>-0.0404390804346481</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-1.20356815437592</v>
+        <v>-0.308135640391425</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.0471777871438536</v>
+        <v>-1.33934576931721</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.776662496348101</v>
+        <v>1.10931819375528</v>
       </c>
       <c r="DC2" t="n">
-        <v>-1.41600679914313</v>
+        <v>0.966472737892634</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.818027907707817</v>
+        <v>-0.785661186335291</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.349330610670751</v>
+        <v>0.723739184469043</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.736299804914116</v>
+        <v>0.935794062570042</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.409302746680204</v>
+        <v>-1.15315184723339</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.507144023613508</v>
+        <v>2.63561945776366</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.96314453507273</v>
+        <v>0.195636912979515</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.0215012045968415</v>
+        <v>-0.821604998149701</v>
       </c>
       <c r="DK2" t="n">
-        <v>2.85574968222034</v>
+        <v>0.320393006440531</v>
       </c>
       <c r="DL2" t="n">
-        <v>-1.56586126935052</v>
+        <v>-0.756063321959264</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.124518402178842</v>
+        <v>-0.728828908587182</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0547180791679942</v>
+        <v>-0.811232425918678</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.460782519235726</v>
+        <v>-1.11878203874855</v>
       </c>
       <c r="DP2" t="n">
-        <v>-1.40186504332645</v>
+        <v>0.803679872109586</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-1.04548436180017</v>
+        <v>-0.924663387934254</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.821817269143414</v>
+        <v>0.704699959534753</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.592356661007713</v>
+        <v>-0.524619121184774</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.2737588476396</v>
+        <v>-0.164794672972841</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.12678583377825</v>
+        <v>-0.855054038226221</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.95144542787544</v>
+        <v>0.730458298070841</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.588406437237806</v>
+        <v>-1.2498728470318</v>
       </c>
       <c r="DX2" t="n">
-        <v>-1.23235787154324</v>
+        <v>0.274522292757179</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.596699374824704</v>
+        <v>0.330906138509312</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.345018080641045</v>
+        <v>-1.0485646827823</v>
       </c>
       <c r="EA2" t="n">
-        <v>-1.08091950073709</v>
+        <v>-0.656607488549025</v>
       </c>
       <c r="EB2" t="n">
-        <v>-1.28243156883193</v>
+        <v>-0.779361030634825</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.895709812379047</v>
+        <v>0.710769446972797</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.519343019326338</v>
+        <v>1.3092870280145</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.969449515655239</v>
+        <v>-1.13168266376285</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0593989801471712</v>
+        <v>-1.51933401065787</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0277584423371026</v>
+        <v>1.26053751721293</v>
       </c>
       <c r="EH2" t="n">
-        <v>1.41794477222712</v>
+        <v>1.19575760441327</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.639523276069214</v>
+        <v>-1.51708951636264</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.552682042274255</v>
+        <v>-1.87449069619536</v>
       </c>
       <c r="EK2" t="n">
-        <v>-1.2422711154403</v>
+        <v>-0.621819217123633</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.761891063281787</v>
+        <v>1.60145803463303</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.269827484507333</v>
+        <v>-0.247098103051055</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.663806438551574</v>
+        <v>0.832747681180615</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.327023184463451</v>
+        <v>-0.447636744384833</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0240469075414866</v>
+        <v>-0.15627184608744</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.593868259631322</v>
+        <v>0.451420700441639</v>
       </c>
       <c r="ER2" t="n">
-        <v>-1.47449658245343</v>
+        <v>0.721364891652936</v>
       </c>
       <c r="ES2" t="n">
-        <v>-1.00470371020059</v>
+        <v>2.00870613835694</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.998969333120356</v>
+        <v>0.497672531163688</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.103299465461209</v>
+        <v>-0.0623311903245813</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.689698431683819</v>
+        <v>-1.07001044211285</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.0705351509363386</v>
+        <v>-0.667770252200399</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.194142215919846</v>
+        <v>-0.324313533940184</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.141757590423097</v>
+        <v>-1.4050870536061</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.838252154212015</v>
+        <v>-1.05375997602044</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.0344769272666568</v>
+        <v>-0.325763586925326</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.077664207102126</v>
+        <v>-0.380186229196954</v>
       </c>
       <c r="FC2" t="n">
-        <v>-2.00357748958749</v>
+        <v>0.861503642033777</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.724818626251634</v>
+        <v>0.0493710284348195</v>
       </c>
       <c r="FE2" t="n">
-        <v>-1.4881946453131</v>
+        <v>0.0567484028501591</v>
       </c>
       <c r="FF2" t="n">
-        <v>-1.58454737661651</v>
+        <v>-0.952983920153249</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.411505161636011</v>
+        <v>1.45015141792322</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.666478924141193</v>
+        <v>0.90684983090791</v>
       </c>
       <c r="FI2" t="n">
-        <v>2.28878374283431</v>
+        <v>-1.89329527801741</v>
       </c>
       <c r="FJ2" t="n">
-        <v>2.36943742151548</v>
+        <v>-0.474344453488719</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/X_correct_genes_example.xlsx
+++ b/file_checks/X_correct_genes_example.xlsx
@@ -1343,502 +1343,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.52358072832574</v>
+        <v>-1.60485892442126</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.565163723836642</v>
+        <v>0.264466408910348</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.384808419512136</v>
+        <v>-0.623424409063086</v>
       </c>
       <c r="D2" t="n">
-        <v>1.12790159590698</v>
+        <v>0.00181885564454492</v>
       </c>
       <c r="E2" t="n">
-        <v>0.235209973968387</v>
+        <v>1.36346864748025</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.0948414459813</v>
+        <v>-0.365383611656113</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.16260860071171</v>
+        <v>0.971677890652711</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.834938109791449</v>
+        <v>0.45577188600562</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.760665954110177</v>
+        <v>-0.504453550989814</v>
       </c>
       <c r="J2" t="n">
-        <v>0.325641927649603</v>
+        <v>-0.196305482590355</v>
       </c>
       <c r="K2" t="n">
-        <v>0.729450012113804</v>
+        <v>0.915149290815695</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.235972605031401</v>
+        <v>-0.579092178001073</v>
       </c>
       <c r="M2" t="n">
-        <v>0.577034452722338</v>
+        <v>-0.0933356266650759</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.204775818144511</v>
+        <v>1.52714266605245</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.505271970862107</v>
+        <v>0.647456942990444</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.154525802684842</v>
+        <v>-0.906133858829253</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.75039667507506</v>
+        <v>-2.49551913132957</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.312288558626208</v>
+        <v>-0.903072471416317</v>
       </c>
       <c r="S2" t="n">
-        <v>0.543289489800526</v>
+        <v>0.00148777421085096</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.650167001613131</v>
+        <v>0.402294358367223</v>
       </c>
       <c r="U2" t="n">
-        <v>0.33071847769103</v>
+        <v>0.546330434282683</v>
       </c>
       <c r="V2" t="n">
-        <v>0.57612142562453</v>
+        <v>0.0906358055612699</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.598672034925136</v>
+        <v>1.02736190131751</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.882597666005313</v>
+        <v>0.152630705248853</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.480136888225401</v>
+        <v>0.159962084460934</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.986825425525895</v>
+        <v>0.358272497464404</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.41502447534455</v>
+        <v>-0.0983243346791718</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.12138007700696</v>
+        <v>0.94313028081834</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.334926469677277</v>
+        <v>-0.426710117135654</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.245162641224281</v>
+        <v>1.00371092923276</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.19535208917994</v>
+        <v>-0.536777576956618</v>
       </c>
       <c r="AF2" t="n">
-        <v>-2.70910781866549</v>
+        <v>1.08353569484139</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.492723253510954</v>
+        <v>-0.24846488415043</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.18845628082683</v>
+        <v>0.72386344935695</v>
       </c>
       <c r="AI2" t="n">
-        <v>-1.05621661168351</v>
+        <v>-1.6907352519776</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.31691524917621</v>
+        <v>0.985971167017362</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.07476645029559</v>
+        <v>1.11933994743612</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.02648072889008</v>
+        <v>-2.13566966001603</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.556358157410929</v>
+        <v>-0.112176933087689</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.419156259990244</v>
+        <v>0.364223202960684</v>
       </c>
       <c r="AO2" t="n">
-        <v>-2.07764399896447</v>
+        <v>-0.130046855352489</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.34739323990549</v>
+        <v>0.134080876039789</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.123095332921576</v>
+        <v>0.285927955043958</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.43647395266448</v>
+        <v>0.629456820548425</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.37071145830875</v>
+        <v>0.0491435225159056</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.316053087683957</v>
+        <v>0.853405778457972</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.93534777457907</v>
+        <v>2.25702783741463</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.726303298031195</v>
+        <v>0.890573874832927</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.357169225861846</v>
+        <v>-2.85944398505794</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.66197086575968</v>
+        <v>-0.433656803801573</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.279204531849145</v>
+        <v>-1.1384215746128</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.936063868124109</v>
+        <v>1.52495517321674</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.14998116175933</v>
+        <v>-0.34925326804174</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.199012806118007</v>
+        <v>-0.400575535702829</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.441348939677437</v>
+        <v>-0.887201378711561</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.595602238040311</v>
+        <v>-0.293026202764967</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.428735450636473</v>
+        <v>-1.54706581717221</v>
       </c>
       <c r="BF2" t="n">
-        <v>-1.39189793099421</v>
+        <v>0.49695432363007</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.671937897660484</v>
+        <v>-0.623618928354749</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.984995412424767</v>
+        <v>1.74450913110985</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.564297382574936</v>
+        <v>-0.504506871646975</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.866395354364217</v>
+        <v>1.37772066862945</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.463195276271378</v>
+        <v>-3.53935038099652</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.573884738837679</v>
+        <v>1.82024040033604</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.674454536449052</v>
+        <v>0.419003117271214</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.848116905236839</v>
+        <v>-0.312735278870653</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.528507566797402</v>
+        <v>-1.51803041651337</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.344436806739043</v>
+        <v>-2.01354786403191</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.0476668310834295</v>
+        <v>0.0473433990146808</v>
       </c>
       <c r="BR2" t="n">
-        <v>2.01206911242541</v>
+        <v>1.88269959051328</v>
       </c>
       <c r="BS2" t="n">
-        <v>3.50437601701606</v>
+        <v>-0.180435067336839</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.936669614660509</v>
+        <v>0.576447688323132</v>
       </c>
       <c r="BU2" t="n">
-        <v>-1.85138687957683</v>
+        <v>0.161068683484701</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.457238009355126</v>
+        <v>1.26071693907877</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0481568056924353</v>
+        <v>-0.254854710910917</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.18375468150904</v>
+        <v>-0.477667177402151</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.148615703631308</v>
+        <v>-1.13714939125375</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-1.54236334560675</v>
+        <v>-0.984721270361638</v>
       </c>
       <c r="CA2" t="n">
-        <v>-1.73385988208944</v>
+        <v>-0.969216445559652</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.211746653539887</v>
+        <v>1.4181069352582</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.743904523064844</v>
+        <v>0.311689225374882</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0814411262998503</v>
+        <v>0.0383331866230622</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.526049707555506</v>
+        <v>0.751900600377838</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.26529163252046</v>
+        <v>0.726730241698119</v>
       </c>
       <c r="CG2" t="n">
-        <v>-1.03224848577433</v>
+        <v>-1.86327362410946</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.749383373042121</v>
+        <v>1.00670119430836</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.14642254426612</v>
+        <v>-0.177785798635681</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0197363185019055</v>
+        <v>0.0367430002160923</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.29981033002896</v>
+        <v>-0.299640515342082</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.17362296148596</v>
+        <v>-0.12477205918535</v>
       </c>
       <c r="CM2" t="n">
-        <v>-1.09982844295075</v>
+        <v>-0.755509903302438</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.172600228041023</v>
+        <v>-0.357016130336794</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.455481649333329</v>
+        <v>0.167722563739651</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.29753875791957</v>
+        <v>-0.242504362201166</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.500460829005253</v>
+        <v>-0.899212766797861</v>
       </c>
       <c r="CR2" t="n">
-        <v>-1.54957518657695</v>
+        <v>-0.849940453156888</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.39841749863675</v>
+        <v>0.253031201901624</v>
       </c>
       <c r="CT2" t="n">
-        <v>3.06410873031629</v>
+        <v>-0.789056419591485</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.794965998959456</v>
+        <v>-0.254351156216151</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.320424043848313</v>
+        <v>0.24991169336849</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.01134041440375</v>
+        <v>0.9764747321894</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.6412302093276</v>
+        <v>0.924934423018283</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.0404390804346481</v>
+        <v>-0.23258614084736</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.308135640391425</v>
+        <v>1.14070986135191</v>
       </c>
       <c r="DA2" t="n">
-        <v>-1.33934576931721</v>
+        <v>0.611082009926051</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.10931819375528</v>
+        <v>-0.419163005785989</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.966472737892634</v>
+        <v>-0.104183323453206</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.785661186335291</v>
+        <v>-0.0735741242579227</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.723739184469043</v>
+        <v>-1.23689430904247</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.935794062570042</v>
+        <v>-1.1655939735138</v>
       </c>
       <c r="DG2" t="n">
-        <v>-1.15315184723339</v>
+        <v>-0.426416836870897</v>
       </c>
       <c r="DH2" t="n">
-        <v>2.63561945776366</v>
+        <v>0.431452868581915</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.195636912979515</v>
+        <v>0.983193813805395</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.821604998149701</v>
+        <v>0.10178507420698</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.320393006440531</v>
+        <v>1.46950119749127</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.756063321959264</v>
+        <v>-0.428275448875705</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.728828908587182</v>
+        <v>1.64656573527875</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.811232425918678</v>
+        <v>-1.702693244166</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.11878203874855</v>
+        <v>1.44187311942575</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.803679872109586</v>
+        <v>1.07406930533298</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.924663387934254</v>
+        <v>-0.441632638326434</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.704699959534753</v>
+        <v>-0.277796488837805</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.524619121184774</v>
+        <v>2.73198684090173</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.164794672972841</v>
+        <v>1.76233315618526</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.855054038226221</v>
+        <v>-0.506928237870042</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.730458298070841</v>
+        <v>-0.140354615055162</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.2498728470318</v>
+        <v>0.0767802569631185</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.274522292757179</v>
+        <v>0.494270941483894</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.330906138509312</v>
+        <v>0.401547859945012</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-1.0485646827823</v>
+        <v>-0.128784930144452</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.656607488549025</v>
+        <v>-2.00499487269371</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.779361030634825</v>
+        <v>-0.00676536711889356</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.710769446972797</v>
+        <v>-0.762939560049784</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.3092870280145</v>
+        <v>-2.11903150856645</v>
       </c>
       <c r="EE2" t="n">
-        <v>-1.13168266376285</v>
+        <v>-0.125387303106256</v>
       </c>
       <c r="EF2" t="n">
-        <v>-1.51933401065787</v>
+        <v>1.18442431110875</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.26053751721293</v>
+        <v>-0.898459697607459</v>
       </c>
       <c r="EH2" t="n">
-        <v>1.19575760441327</v>
+        <v>1.00853458399153</v>
       </c>
       <c r="EI2" t="n">
-        <v>-1.51708951636264</v>
+        <v>0.284555414715793</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-1.87449069619536</v>
+        <v>-1.02359168197427</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.621819217123633</v>
+        <v>0.83689649615018</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.60145803463303</v>
+        <v>1.7269764535883</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.247098103051055</v>
+        <v>-0.377612706413495</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.832747681180615</v>
+        <v>-0.347330514677419</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.447636744384833</v>
+        <v>0.98678475996428</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.15627184608744</v>
+        <v>-1.51257440440266</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.451420700441639</v>
+        <v>0.506072481763204</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.721364891652936</v>
+        <v>0.806511070618108</v>
       </c>
       <c r="ES2" t="n">
-        <v>2.00870613835694</v>
+        <v>1.56384831554368</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.497672531163688</v>
+        <v>-0.567630592714779</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.0623311903245813</v>
+        <v>-1.05502441257813</v>
       </c>
       <c r="EV2" t="n">
-        <v>-1.07001044211285</v>
+        <v>-0.196306495812716</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.667770252200399</v>
+        <v>0.23009840363445</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.324313533940184</v>
+        <v>-0.469292539157994</v>
       </c>
       <c r="EY2" t="n">
-        <v>-1.4050870536061</v>
+        <v>1.16641159921548</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-1.05375997602044</v>
+        <v>0.280394679757402</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.325763586925326</v>
+        <v>-1.20705241341069</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.380186229196954</v>
+        <v>-0.870583439577181</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.861503642033777</v>
+        <v>-1.41970062361156</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0493710284348195</v>
+        <v>2.11260262063317</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0567484028501591</v>
+        <v>0.776810152123105</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.952983920153249</v>
+        <v>-0.70994710327668</v>
       </c>
       <c r="FG2" t="n">
-        <v>1.45015141792322</v>
+        <v>0.764454743232169</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.90684983090791</v>
+        <v>-1.04923203593014</v>
       </c>
       <c r="FI2" t="n">
-        <v>-1.89329527801741</v>
+        <v>-1.41536443438699</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.474344453488719</v>
+        <v>1.20273111538763</v>
       </c>
     </row>
   </sheetData>
